--- a/topic_split/topic_8.xlsx
+++ b/topic_split/topic_8.xlsx
@@ -22,62 +22,54 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[3.49684741e-308 2.05141214e-308 4.19372358e-308 2.01276379e-308
- 5.15268095e-308 8.91938935e-308 1.41115313e-307 1.00000000e+000
- 5.78687561e-308 4.08237737e-308 2.02879396e-307 4.63151103e-308
- 1.06604860e-307 2.60717738e-308 2.30334905e-307 4.54072714e-308
- 6.98750052e-308 1.25964210e-307 6.01905044e-308 5.49192900e-308
- 7.00230502e-308 7.46672027e-308 1.68010373e-307 4.62126824e-308
- 5.91429943e-308]</t>
-  </si>
-  <si>
-    <t>[0.01492319 0.00756439 0.01369317 0.0073988  0.01826064 0.03842024
- 0.05419295 0.11359927 0.01836564 0.0166753  0.06388755 0.01544737
- 0.03102832 0.00959114 0.12724842 0.01865413 0.03337651 0.06291609
- 0.02479494 0.02302662 0.02135508 0.03437883 0.04447269 0.01923545
- 0.02066363]</t>
-  </si>
-  <si>
-    <t>[0.01654119 0.00778297 0.01478011 0.00762692 0.02256248 0.05546066
- 0.04447503 0.14867212 0.01907426 0.01684008 0.05840449 0.01631228
- 0.03079999 0.00974077 0.08023725 0.01897605 0.03869535 0.05050145
- 0.02496568 0.02233453 0.02256917 0.03501341 0.05090694 0.01907218
- 0.02082501]</t>
-  </si>
-  <si>
-    <t>[3.76224677e-308 1.92101922e-308 4.10786391e-308 1.88355555e-308
- 6.44232340e-308 1.24609487e-307 1.02979631e-307 1.00000000e+000
- 5.29414264e-308 4.03043689e-308 1.58447389e-307 4.47910879e-308
- 8.83180712e-308 2.40776749e-308 1.48238628e-307 4.57698516e-308
- 8.20867246e-308 9.79139122e-308 6.16221136e-308 5.29167823e-308
- 6.55737893e-308 8.06846746e-308 1.87125763e-307 4.50599168e-308
- 5.63369886e-308]</t>
-  </si>
-  <si>
-    <t>[0.01130621 0.00663767 0.01417003 0.00650954 0.01745485 0.0291728
- 0.04451059 0.36657549 0.01969403 0.0134314  0.07643474 0.0157459
- 0.03656317 0.00843791 0.06494687 0.01505101 0.02269734 0.03772392
- 0.02024938 0.01809908 0.02426212 0.02488664 0.06247308 0.01516262
- 0.0202997 ]</t>
-  </si>
-  <si>
-    <t>[0.01502102 0.00708229 0.01454341 0.00693554 0.02398148 0.05456821
- 0.03769023 0.24609645 0.01857706 0.01568992 0.05685938 0.01607164
- 0.02991176 0.00886162 0.055348   0.01797929 0.0354373  0.03750143
- 0.02443503 0.02072854 0.02262396 0.0339141  0.05786745 0.01761404
- 0.02065555]</t>
-  </si>
-  <si>
-    <t>[3.61469410e-308 1.95689542e-308 4.08245051e-308 1.92089852e-308
- 5.77213314e-308 1.07703980e-307 1.12986329e-307 1.00000000e+000
- 5.37902758e-308 3.93802883e-308 1.65402079e-307 4.43584414e-308
- 9.26400426e-308 2.46001961e-308 1.77561628e-307 4.41418381e-308
- 7.53689461e-308 1.09045946e-307 5.83445270e-308 5.18553698e-308
- 6.57830599e-308 7.46361129e-308 1.74114926e-307 4.41865638e-308
- 5.52550270e-308]</t>
+    <t>Local Units Edit Process Flow
+I am sharing the [updated wireframes](https://www.figma.com/proto/H9mZfGeXtlzK6HPzttYoci/IFRC-GO---Wires-Current---1?page-id=0%3A1&amp;node-id=4344-45088&amp;node-type=frame&amp;viewport=5316%2C6192%2C0.06&amp;t=MvjAi2elx76JGcqg-1&amp;scaling=scale-down-width&amp;content-scaling=fixed&amp;starting-point-node-id=1%3A10724&amp;hide-ui=1) and the process flow for managing local units on GO. The wireframes address the issues we discussed during the GO Sprint, which are [documented here](https://ifrcorg.sharepoint.com/:w:/r/sites/GOIVfordeveloperteam/Shared%20Documents/General/Geospatial/Local%20Units/Documents/Process%20Flow%20to%20Maintain%20Local%20Units%20on%20GO%20Frontend.docx?d=w586fbbaaaa764d6e98e890969b39f75e&amp;csf=1&amp;web=1&amp;e=jQYxhN). @udaynwa, let's proceed with the adjustments to the local units module.</t>
+  </si>
+  <si>
+    <t>[PROD] Surge CoS - IM: Update link to IM Technical Competency Framwork
+On the Surge Catalogue of Services [IM page](https://go.ifrc.org/surge/catalogue/information-management), change the [current link](https://ifrcorg.sharepoint.com/:b:/s/IFRCSharing/Ebz7vm6VjlNAifhse_vLmXQBxGSqF7VytmtmPFiZwUeXgw) to IM Technical Competency Framework to point to the SharePoint [folder](https://ifrcorg.sharepoint.com/:f:/s/IFRCSharing/EgH4I6LxIMBFtkWGT8ROqegBc1rVqsgiPkxvVy_a-8qKZw?e=5UdpZ4) as we now have the framework translated into four IFRC languages.</t>
+  </si>
+  <si>
+    <t>Surge CoS - 03 Febr. update
+[ERU MHPSS Module specifications_Surge catalogue.docx](https://github.com/user-attachments/files/18642541/ERU.MHPSS.Module.specifications_Surge.catalogue.docx)
+Could you please
+- update the [ERU MHPSS Module](https://go.ifrc.org/surge/catalogue/health/eru-psychosocial-support) in the Catalogue with the updated information provided in the attached document
+- screen the Catalogue and ensure that “PSS” is updated for “MPHSS” everywhere</t>
+  </si>
+  <si>
+    <t>Surge CoS: Administration
+Please find attached the materials to create a new sector in the GO Catalogue of Surge Services: Administration. Attached you will find the introduction to utilize under the new section, alongside the three (3) Roles Profiles to be added under the usual sub-section Rapid Response Personnel: • Welcome Services Officer https://ifrcorg.sharepoint.com/:b:/s/IFRCSharing/EZBuZvMv9lFGiPaObl1N9CYBzrWJfMy6kC4WxfrfsnGyAw?e=sIDx2F • Administration Officer https://ifrcorg.sharepoint.com/:b:/s/IFRCSharing/EV6AfXJjToZGlxfswDSc_0YB3VVqNlw4ZQRL4pO0KBsbOQ?e=Av2We7 • Administration Coordinator https://ifrcorg.sharepoint.com/:b:/s/IFRCSharing/EW0VBtdVygNHoynmE_2RX1wBcv8CiS2D9zgeBeeiTrq-9A?e=2VJwyb [Admin - Sector Introduction for Catalogue of Surge Services.docx](https://github.com/user-attachments/files/18938599/Admin.-.Sector.Introduction.for.Catalogue.of.Surge.Services.docx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surge CoS: Basecamp, IT/telecom updates
+We would like to share with you some additional changes to be made in the Catalogue of Surge services, based on reviews we have completed with the different Tools (specially ERU). So the changes are:
+-	BASECAMP: should be changed to OPERATIONS SUPPORT HUB (OSH). Please see the  [ presentation attached](https://ifrcorg.sharepoint.com/:p:/s/ERUProcess/ESjuOMIsf9pGjFOyxU8hnFwBnF8uYvnbU20uhMK3oQFo9A?e=uSr0Mv&amp;xsdata=MDV8MDJ8RGFuaWVsLlRPVkFSSUBpZnJjLm9yZ3w3ZDg2ZDg1ZjBhYzM0MTE3MDI2YzA4ZGQ1MjcwZWI0ZnxhMmI1M2JlNTczNGU0ZTZjYWIwZGQxODRmNjBmZDkxN3wwfDB8NjM4NzU3MzY3MTEzNDMyODY4fFVua25vd258VFdGcGJHWnNiM2Q4ZXlKRmJYQjBlVTFoY0draU9uUnlkV1VzSWxZaU9pSXdMakF1TURBd01DSXNJbEFpT2lKWGFXNHpNaUlzSWtGT0lqb2lUV0ZwYkNJc0lsZFVJam95ZlE9PXwwfHx8&amp;sdata=M1JJdGtyRk5XVGliaDhhRkFQUFRyc040dHRXazlQeU5EUGJ6L01lVFFybz0%3d) with all the information. We would like to represent:
+   o	Within OSB there should be 4 subcategories as follows:
+    	Facility management: please revise what is currently there based on the information on the slide 23
+    	Basecamp: you can keep all the same information as it is currently with the subheadings as Small – Medium - Large
+    	Office module: this is a new one to be added. See slide 25
+    	Admin and welcome service module: this is a new one to be added. See slide 26. 
+Great if you could also load the [attached    presentation](https://ifrcorg.sharepoint.com/:b:/s/ERUProcess/EezRZd1xF4ZEsFpgVoAPCYYBukPe0KRSf_BevLEya7ietw?e=HzgDN2&amp;xsdata=MDV8MDJ8RGFuaWVsLlRPVkFSSUBpZnJjLm9yZ3w3ZDg2ZDg1ZjBhYzM0MTE3MDI2YzA4ZGQ1MjcwZWI0ZnxhMmI1M2JlNTczNGU0ZTZjYWIwZGQxODRmNjBmZDkxN3wwfDB8NjM4NzU3MzY3MTEzNDQ4MjA2fFVua25vd258VFdGcGJHWnNiM2Q4ZXlKRmJYQjBlVTFoY0draU9uUnlkV1VzSWxZaU9pSXdMakF1TURBd01DSXNJbEFpT2lKWGFXNHpNaUlzSWtGT0lqb2lUV0ZwYkNJc0lsZFVJam95ZlE9PXwwfHx8&amp;sdata=dzRDbGREY0p1cGlZK0VDMzI1SkJKTWlzcm91MUpGdjBtZi8yUDhseHQydz0%3d). and also these   [two pager](https://ifrcorg.sharepoint.com/:b:/s/ERUProcess/ERtP0tUAHrNMomrScMYWDJ0B_FVFKFIqlPVCYJ3LF4sCtw?e=V9z4IW&amp;xsdata=MDV8MDJ8RGFuaWVsLlRPVkFSSUBpZnJjLm9yZ3w3ZDg2ZDg1ZjBhYzM0MTE3MDI2YzA4ZGQ1MjcwZWI0ZnxhMmI1M2JlNTczNGU0ZTZjYWIwZGQxODRmNjBmZDkxN3wwfDB8NjM4NzU3MzY3MTEzNDU4NDM4fFVua25vd258VFdGcGJHWnNiM2Q4ZXlKRmJYQjBlVTFoY0draU9uUnlkV1VzSWxZaU9pSXdMakF1TURBd01DSXNJbEFpT2lKWGFXNHpNaUlzSWtGT0lqb2lUV0ZwYkNJc0lsZFVJam95ZlE9PXwwfHx8&amp;sdata=WndObXBjRkVtQ0JYZEtydzlKMCtFUkhYOHU2TWdMU09XbHl2ZjlTMTBVVT0%3d) 
+-	IT/Telecom: please see the   [attached document](https://ifrcorg.sharepoint.com/:w:/s/ERUProcess/EeMOXk5UaUNGheRkrww21SABNbbnVRu6Kxn2A5_1ZnpahA?e=iwwM8i&amp;xsdata=MDV8MDJ8RGFuaWVsLlRPVkFSSUBpZnJjLm9yZ3w3ZDg2ZDg1ZjBhYzM0MTE3MDI2YzA4ZGQ1MjcwZWI0ZnxhMmI1M2JlNTczNGU0ZTZjYWIwZGQxODRmNjBmZDkxN3wwfDB8NjM4NzU3MzY3MTEzNDY4MzA1fFVua25vd258VFdGcGJHWnNiM2Q4ZXlKRmJYQjBlVTFoY0draU9uUnlkV1VzSWxZaU9pSXdMakF1TURBd01DSXNJbEFpT2lKWGFXNHpNaUlzSWtGT0lqb2lUV0ZwYkNJc0lsZFVJam95ZlE9PXwwfHx8&amp;sdata=NU5jN3JmVm02Snl0RXZ0WkRkMzJQRXg4c3NiREN4K2RiRVE2M2FOTnZ1OD0%3d) with all the services to be modified on the catalogue. 
+  o	Could you please also add   [this presentation](https://ifrcorg.sharepoint.com/:b:/s/ERUProcess/ETj4oPrM42BFoieFE_ALJIIBIAb3gJSIRleymHgkDL2RIQ?e=awilpm&amp;xsdata=MDV8MDJ8RGFuaWVsLlRPVkFSSUBpZnJjLm9yZ3w3ZDg2ZDg1ZjBhYzM0MTE3MDI2YzA4ZGQ1MjcwZWI0ZnxhMmI1M2JlNTczNGU0ZTZjYWIwZGQxODRmNjBmZDkxN3wwfDB8NjM4NzU3MzY3MTEzNDc2OTIzfFVua25vd258VFdGcGJHWnNiM2Q4ZXlKRmJYQjBlVTFoY0draU9uUnlkV1VzSWxZaU9pSXdMakF1TURBd01DSXNJbEFpT2lKWGFXNHpNaUlzSWtGT0lqb2lUV0ZwYkNJc0lsZFVJam95ZlE9PXwwfHx8&amp;sdata=cXc5Z21OTUo5SklJZjIxWTEvNXFaZzBOSmdPRWdlZlduc0xFeXRZS3JXRT0%3d) that shows all the services in detail?
+Feel free to use the pictures also on the powerpoints.
+</t>
+  </si>
+  <si>
+    <t>Surge CoS: Health fix
+please remove the sentence “24 hour clinical services for 100-200 outpatients/day.” under the sub-section “Non-Clinical - Emergency Response Unit”
+![Image](https://github.com/user-attachments/assets/8023a9b3-bb5d-403c-9ef1-b33b28cbdec0)</t>
+  </si>
+  <si>
+    <t>See Readiness Info Button
+Add a modal with a list of national societies and its option value as shown in the below image.
+![Image](https://github.com/user-attachments/assets/bb14fe80-900d-45ae-b5a7-e2f8adc50f52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surge CoS - WASH ERU FSM
+Could you kindly create a new Emergency Response Unit page under the [WASH section](https://go.ifrc.org/surge/catalogue/wash) of the Catalogue called Faecal Sludge Management? The content of that page is in the attached document. If you have any questions about the content, Marshal Mukuvare and Will Carter can provide support.
+[WASH ERU FSM IFRC GO.docx](https://github.com/user-attachments/files/19056915/WASH.ERU.FSM.IFRC.GO.docx)
+</t>
   </si>
 </sst>
 </file>
@@ -435,98 +427,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>74</v>
-      </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>76</v>
-      </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>85</v>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>89</v>
-      </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
